--- a/inst/extdata/data/CH04_ibovespa-Excel.xlsx
+++ b/inst/extdata/data/CH04_ibovespa-Excel.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3215"/>
+  <dimension ref="A1:B3216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26085,7 +26085,15 @@
         <v>44922</v>
       </c>
       <c r="B3215">
-        <v>108839.960938</v>
+        <v>108347</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B3216">
+        <v>109080.546875</v>
       </c>
     </row>
   </sheetData>
